--- a/countries/Chile.xlsx
+++ b/countries/Chile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{22C6E9D9-EE78-487C-A895-432BCDD83500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E80D30A-4121-4203-BAA4-5594838B3F1F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{22C6E9D9-EE78-487C-A895-432BCDD83500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3557CBAC-05F7-4F14-B41A-FE6A1DEC47E9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allende" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="441">
   <si>
     <t>id</t>
   </si>
@@ -1395,6 +1395,18 @@
   </si>
   <si>
     <t>Alcalde Pedro Alarcón</t>
+  </si>
+  <si>
+    <t>Villa Salvador Allende</t>
+  </si>
+  <si>
+    <t>La Pintana</t>
+  </si>
+  <si>
+    <t>https://www.openstreetmap.org/node/9728569027</t>
+  </si>
+  <si>
+    <t>https://goo.gl/maps/NbqWJV69Cbu8h53k6</t>
   </si>
 </sst>
 </file>
@@ -1439,6 +1451,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1470,7 +1483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1490,6 +1503,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1720,13 +1734,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M24" sqref="M24"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7257,6 +7271,59 @@
       </c>
       <c r="X84" s="11" t="s">
         <v>362</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13">
+        <v>120</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G85" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="K85" s="10">
+        <v>8010000</v>
+      </c>
+      <c r="L85" s="13">
+        <v>-33.580694899999997</v>
+      </c>
+      <c r="M85" s="13">
+        <v>-70.646144500000005</v>
+      </c>
+      <c r="N85" s="13">
+        <v>2012</v>
+      </c>
+      <c r="O85" s="13">
+        <v>11</v>
+      </c>
+      <c r="Q85" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="V85" s="13">
+        <v>1</v>
+      </c>
+      <c r="W85" s="13" t="s">
+        <v>439</v>
+      </c>
+      <c r="X85" s="13" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
